--- a/src/main/resources/123-madao_service/service-base_structure.xlsx
+++ b/src/main/resources/123-madao_service/service-base_structure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="171">
   <si>
     <t>类名</t>
   </si>
@@ -64,7 +64,7 @@
     <t>java.lang.String</t>
   </si>
   <si>
-    <t>handle(javax.servlet.http.HttpServletRequest)</t>
+    <t>handle(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,org.springframework.security.access.AccessDeniedException)</t>
   </si>
   <si>
     <t>wait(java.lang.Long)</t>
@@ -100,7 +100,7 @@
     <t>com.madao.base.handler.CustomAuthenticationEntryPoint</t>
   </si>
   <si>
-    <t>commence(javax.servlet.http.HttpServletRequest)</t>
+    <t>commence(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,org.springframework.security.core.AuthenticationException)</t>
   </si>
   <si>
     <t>com.madao.base.config.Swagger2Config</t>
@@ -286,10 +286,10 @@
     <t>com.madao.base.service.backstage.OptLogService</t>
   </si>
   <si>
-    <t>lambda$null$1(com.madao.model.dto.user.UserDto)</t>
-  </si>
-  <si>
-    <t>lambda$findOptLogByCondition$3(org.springframework.data.domain.Page)</t>
+    <t>lambda$null$1(com.madao.model.dto.user.UserDto,com.madao.model.dto.base.OptLogDto)</t>
+  </si>
+  <si>
+    <t>lambda$findOptLogByCondition$3(org.springframework.data.domain.Page,com.madao.model.dto.user.UserDto)</t>
   </si>
   <si>
     <t>java.util.stream.Stream</t>
@@ -301,7 +301,7 @@
     <t>findById(java.lang.String)</t>
   </si>
   <si>
-    <t>findOptLogByCondition(com.madao.model.dto.base.OptLogDto)</t>
+    <t>findOptLogByCondition(com.madao.model.dto.base.OptLogDto,org.springframework.data.domain.Pageable)</t>
   </si>
   <si>
     <t>org.springframework.data.domain.Page</t>
@@ -310,10 +310,10 @@
     <t>insertOptLog(com.madao.model.dto.base.OptLogDto)</t>
   </si>
   <si>
-    <t>lambda$null$2(com.madao.model.dto.user.UserDto)</t>
-  </si>
-  <si>
-    <t>lambda$findOptLogByCondition$b33c1eda$1(com.madao.model.dto.base.OptLogDto)</t>
+    <t>lambda$null$2(com.madao.model.dto.user.UserDto,com.madao.model.dto.base.OptLogDto)</t>
+  </si>
+  <si>
+    <t>lambda$findOptLogByCondition$b33c1eda$1(com.madao.model.dto.base.OptLogDto,javax.persistence.criteria.Root,javax.persistence.criteria.CriteriaQuery,javax.persistence.criteria.CriteriaBuilder)</t>
   </si>
   <si>
     <t>javax.persistence.criteria.Predicate</t>
@@ -340,27 +340,33 @@
     <t>findIdNameTypeByParentId(com.madao.model.dto.base.DictDto)</t>
   </si>
   <si>
-    <t>findDictByCondition(com.madao.model.dto.base.DictDto)</t>
-  </si>
-  <si>
-    <t>lambda$findDictByCondition$3433001a$1(com.madao.model.dto.base.DictDto)</t>
+    <t>findDictByCondition(com.madao.model.dto.base.DictDto,org.springframework.data.domain.Pageable)</t>
+  </si>
+  <si>
+    <t>lambda$findDictByCondition$3433001a$1(com.madao.model.dto.base.DictDto,javax.persistence.criteria.Root,javax.persistence.criteria.CriteriaQuery,javax.persistence.criteria.CriteriaBuilder)</t>
   </si>
   <si>
     <t>com.madao.base.service.backstage.LoginLogService</t>
   </si>
   <si>
-    <t>lambda$findLoginLogByCondition$3(org.springframework.data.domain.Page)</t>
-  </si>
-  <si>
-    <t>findLoginLogByCondition(com.madao.model.dto.base.LoginLogDto)</t>
-  </si>
-  <si>
-    <t>lambda$findLoginLogByCondition$8a0ee41a$1(com.madao.model.dto.base.LoginLogDto)</t>
+    <t>lambda$findLoginLogByCondition$3(org.springframework.data.domain.Page,com.madao.model.dto.user.UserDto)</t>
+  </si>
+  <si>
+    <t>lambda$null$2(com.madao.model.dto.user.UserDto,com.madao.model.dto.base.LoginLogDto)</t>
+  </si>
+  <si>
+    <t>findLoginLogByCondition(com.madao.model.dto.base.LoginLogDto,org.springframework.data.domain.Pageable)</t>
+  </si>
+  <si>
+    <t>lambda$findLoginLogByCondition$8a0ee41a$1(com.madao.model.dto.base.LoginLogDto,javax.persistence.criteria.Root,javax.persistence.criteria.CriteriaQuery,javax.persistence.criteria.CriteriaBuilder)</t>
   </si>
   <si>
     <t>save(com.madao.model.dto.base.LoginLogDto)</t>
   </si>
   <si>
+    <t>lambda$null$1(com.madao.model.dto.user.UserDto,com.madao.model.dto.base.LoginLogDto)</t>
+  </si>
+  <si>
     <t>lambda$findLoginLogByCondition$0(java.lang.Integer)</t>
   </si>
   <si>
@@ -484,7 +490,7 @@
     <t>fetchDictType(com.madao.model.dto.base.DictDto)</t>
   </si>
   <si>
-    <t>findResByCondition(com.madao.model.dto.base.DictDto)</t>
+    <t>findResByCondition(com.madao.model.dto.base.DictDto,org.springframework.data.domain.Pageable)</t>
   </si>
   <si>
     <t>com.madao.base.controller.backstage.OptLogController</t>
@@ -4670,7 +4676,7 @@
         <v>108</v>
       </c>
       <c r="B293" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="C293" t="s">
         <v>29</v>
@@ -4768,7 +4774,7 @@
         <v>108</v>
       </c>
       <c r="B300" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C300" t="s">
         <v>6</v>
@@ -4782,7 +4788,7 @@
         <v>108</v>
       </c>
       <c r="B301" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C301" t="s">
         <v>29</v>
@@ -4810,7 +4816,7 @@
         <v>108</v>
       </c>
       <c r="B303" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C303" t="s">
         <v>6</v>
@@ -4838,7 +4844,7 @@
         <v>108</v>
       </c>
       <c r="B305" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="C305" t="s">
         <v>29</v>
@@ -4880,7 +4886,7 @@
         <v>108</v>
       </c>
       <c r="B308" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C308" t="s">
         <v>29</v>
@@ -4905,7 +4911,7 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B310" t="s">
         <v>5</v>
@@ -4919,7 +4925,7 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B311" t="s">
         <v>8</v>
@@ -4933,7 +4939,7 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B312" t="s">
         <v>11</v>
@@ -4947,7 +4953,7 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B313" t="s">
         <v>12</v>
@@ -4961,7 +4967,7 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B314" t="s">
         <v>15</v>
@@ -4975,7 +4981,7 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B315" t="s">
         <v>16</v>
@@ -4989,10 +4995,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B316" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C316" t="s">
         <v>6</v>
@@ -5003,7 +5009,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B317" t="s">
         <v>17</v>
@@ -5017,7 +5023,7 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B318" t="s">
         <v>19</v>
@@ -5031,7 +5037,7 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B319" t="s">
         <v>21</v>
@@ -5045,7 +5051,7 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B320" t="s">
         <v>22</v>
@@ -5059,7 +5065,7 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B321" t="s">
         <v>24</v>
@@ -5089,13 +5095,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
@@ -5103,13 +5109,13 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3">
@@ -5117,7 +5123,7 @@
         <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -5131,7 +5137,7 @@
         <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -5145,7 +5151,7 @@
         <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -5159,7 +5165,7 @@
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -5173,7 +5179,7 @@
         <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -5187,7 +5193,7 @@
         <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -5201,13 +5207,13 @@
         <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10">
@@ -5215,13 +5221,13 @@
         <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
@@ -5229,7 +5235,7 @@
         <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -5243,7 +5249,7 @@
         <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
@@ -5257,7 +5263,7 @@
         <v>108</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
@@ -5271,7 +5277,7 @@
         <v>108</v>
       </c>
       <c r="B14" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -5285,49 +5291,49 @@
         <v>108</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B18" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
@@ -5351,13 +5357,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -5365,63 +5371,63 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>143</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B6" t="s">
         <v>92</v>
@@ -5430,82 +5436,82 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s">
         <v>103</v>
@@ -5514,40 +5520,40 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B13" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s">
         <v>92</v>
@@ -5556,40 +5562,40 @@
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B16" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B17" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s">
         <v>93</v>
@@ -5598,12 +5604,12 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B19" t="s">
         <v>95</v>
@@ -5612,21 +5618,21 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B20" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -5644,19 +5650,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2">
@@ -5673,7 +5679,7 @@
         <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3">
@@ -5690,7 +5696,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4">
@@ -5707,7 +5713,7 @@
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5">
@@ -5724,7 +5730,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6">
@@ -5741,7 +5747,7 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7">
@@ -5758,7 +5764,7 @@
         <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8">
@@ -5775,7 +5781,7 @@
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9">
@@ -5792,7 +5798,7 @@
         <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10">
@@ -5809,7 +5815,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11">
@@ -5826,7 +5832,7 @@
         <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12">
@@ -5843,7 +5849,7 @@
         <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13">
@@ -5860,7 +5866,7 @@
         <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14">
@@ -5877,7 +5883,7 @@
         <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15">
@@ -5894,7 +5900,7 @@
         <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16">
@@ -5911,7 +5917,7 @@
         <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17">
@@ -5928,7 +5934,7 @@
         <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18">
@@ -5945,7 +5951,7 @@
         <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19">
@@ -5962,7 +5968,7 @@
         <v>78</v>
       </c>
       <c r="E19" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20">
@@ -5979,7 +5985,7 @@
         <v>78</v>
       </c>
       <c r="E20" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21">
@@ -5996,7 +6002,7 @@
         <v>78</v>
       </c>
       <c r="E21" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22">
@@ -6013,7 +6019,7 @@
         <v>76</v>
       </c>
       <c r="E22" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23">
@@ -6030,7 +6036,7 @@
         <v>61</v>
       </c>
       <c r="E23" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24">
@@ -6047,7 +6053,7 @@
         <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25">
@@ -6064,7 +6070,7 @@
         <v>61</v>
       </c>
       <c r="E25" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26">
@@ -6081,7 +6087,7 @@
         <v>47</v>
       </c>
       <c r="E26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27">
@@ -6098,7 +6104,7 @@
         <v>49</v>
       </c>
       <c r="E27" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28">
@@ -6115,7 +6121,7 @@
         <v>50</v>
       </c>
       <c r="E28" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29">
@@ -6123,7 +6129,7 @@
         <v>108</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C29" t="s">
         <v>69</v>
@@ -6132,7 +6138,7 @@
         <v>61</v>
       </c>
       <c r="E29" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30">
@@ -6149,7 +6155,7 @@
         <v>50</v>
       </c>
       <c r="E30" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -6159,7 +6165,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6167,24 +6173,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" t="s">
         <v>163</v>
-      </c>
-      <c r="B1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
         <v>92</v>
@@ -6196,66 +6202,66 @@
         <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
         <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
         <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B5" t="s">
         <v>150</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C6" t="s">
         <v>101</v>
@@ -6264,126 +6270,177 @@
         <v>102</v>
       </c>
       <c r="E6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="C7" t="s">
         <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s">
         <v>101</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="E8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C9" t="s">
         <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
       <c r="C10" t="s">
         <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="E11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="E12" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C13" t="s">
         <v>87</v>
       </c>
       <c r="D13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" t="s">
         <v>50</v>
       </c>
-      <c r="E13" t="s">
-        <v>162</v>
+      <c r="E16" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -6401,19 +6458,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -6431,19 +6488,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" t="s">
         <v>163</v>
-      </c>
-      <c r="B1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E1" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -6461,19 +6518,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -6491,19 +6548,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" t="s">
         <v>163</v>
-      </c>
-      <c r="B1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E1" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
